--- a/Resouces.xlsx
+++ b/Resouces.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0A3F5C84-0934-455B-B1EE-A82F436A77FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6411A98A-FC80-494C-B35B-32A0C21ACA6F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Link</t>
   </si>
@@ -38,6 +38,36 @@
   </si>
   <si>
     <t>Conceptual walkthrough of K-means</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/7339455/</t>
+  </si>
+  <si>
+    <t>Identifying At-Risk Students for Early Interventions—A Time-Series Clustering Approach</t>
+  </si>
+  <si>
+    <t>abstract makes this sound similar to what we are trying to do. Trying to track down the actual paper</t>
+  </si>
+  <si>
+    <t>https://github.com/AileenNielsen/TimeSeriesAnalysisWithPython/blob/master/9.%20Clustering%20%26%20Classification.ipynb</t>
+  </si>
+  <si>
+    <t>TimeSeries Analysis with Python</t>
+  </si>
+  <si>
+    <t>some stock code for working with and graphing time series data</t>
+  </si>
+  <si>
+    <t>https://machinelearningmastery.com/time-series-data-visualization-with-python/</t>
+  </si>
+  <si>
+    <t>http://didawiki.cli.di.unipi.it/lib/exe/fetch.php/dm/time_series_from_keogh_tutorial.pdf</t>
+  </si>
+  <si>
+    <t>Introduction to Time Series Mining</t>
+  </si>
+  <si>
+    <t>long presentation/introduction to using machine learning on time series. Most of it is unnecesssary for ours, but it has some useful starting info</t>
   </si>
 </sst>
 </file>
@@ -87,9 +117,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,19 +405,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="55.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="1" max="2" width="55.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -393,15 +429,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
